--- a/TweetsColetadosEntretenimento.xlsx
+++ b/TweetsColetadosEntretenimento.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Sentimento</t>
+          <t>Sentimento1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sentimento2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SentimentoFinal</t>
         </is>
       </c>
     </row>
@@ -456,15 +466,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sat Jul 24 15:31:52 +0000 2021</t>
+          <t>Sat Jul 24 16:55:20 +0000 2021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Reabertura amanhã, (domingo 25, 13h.) nossa nova loja bazar dos artistas no Salvador Norte Shopping Piso L2. #moda #arte #cidadania #ação #entretenimento #oportunidade #parceria #solidariedade #bondade Gratidão! https://t.co/uhPM6zciRp</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>@crfelipetwd @mayrsredside sim amor pra entreter a comunidade #entretenimento</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -472,15 +496,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sat Jul 24 15:30:35 +0000 2021</t>
+          <t>Sat Jul 24 16:45:27 +0000 2021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Reabertura amanhã, (domingo 25, 13h.) nossa nova loja bazar dos artistas no Salvador Norte Shopping @SalvadorNorte Piso L2. #moda #arte #cidadania #ação #entretenimento #oportunidade #parceria #solidariedade #bondade Gratidão! https://t.co/XmW5t8WVcp</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>Michael B. Jordan deve viver Super-Homem negro em série da HBO Max https://t.co/vNtIrOrGky #F5Online #destaque2 #entretenimento #hbomax #michaelb.jordan #séries #streaming #super-homem</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -488,10 +526,165 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Sat Jul 24 16:17:52 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Diretor de Mestres do Universo diz que nova série é um He-Man para adultos
+Equipe afirma q... 
+#noticias #netflix #series #news #fun #entretenimento https://t.co/CvXEwMBC01 https://t.co/XRQ8TFIvOG</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:12:16 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dragon Ball Super: Super Hero é o... 
+#news #otaku #entretenimento #anuncio #animegirls #filmes #animesgirls #noticias #entretenimento #animes #animes #fun https://t.co/VVt1b8Y2E4 https://t.co/YFqbwLrTPC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:11:20 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rumor | Vazou a lista de jogos da PlayStation Plus de Agosto
+Serão anunciados oficialme... 
+#playstation5 #entretenimento #news #playstation4 #games #noticias #games https://t.co/gIjywWcQBg https://t.co/O2UPFPXOnN</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 15:31:52 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Reabertura amanhã, (domingo 25, 13h.) nossa nova loja bazar dos artistas no Salvador Norte Shopping Piso L2. #moda #arte #cidadania #ação #entretenimento #oportunidade #parceria #solidariedade #bondade Gratidão! https://t.co/uhPM6zciRp</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 15:30:35 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Reabertura amanhã, (domingo 25, 13h.) nossa nova loja bazar dos artistas no Salvador Norte Shopping @SalvadorNorte Piso L2. #moda #arte #cidadania #ação #entretenimento #oportunidade #parceria #solidariedade #bondade Gratidão! https://t.co/XmW5t8WVcp</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Sat Jul 24 15:16:45 +0000 2021</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Maquina de Videokê e Máquina de Música (Jukebox)
 PJRM ENTRETENIMENTO
@@ -505,54 +698,96 @@
 #Automação #SJC #SJCampos SP #Jacareí SP https://t.co/vcivKBb2vR</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Sat Jul 24 15:00:02 +0000 2021</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>MÚSICA | DJ Rebelde leva o baile da saudade a diversos pontos da capital paraense neste verão.
 #belemcombr #musica #entretenimento
 https://t.co/KNXQIxWsML</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:54:27 +0000 2021</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Casal lindo e quente passando na sua timeline🔥
 Não esqueça, dia 02/09 estreia AFTER - DEPOIS DO DESENCONTRO nos cinemas😍🍿
 #aftedepoisdodesencontro #tessa #hardin #cinema #fofoca #entretenimento #musica #pop  #filmesderomance #humor #annatodd #bestseller #cinema #after https://t.co/FkfYZDEjLf</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:47:32 +0000 2021</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Arte toma conta do Espaço Verde Chico Mendes neste domingo
 .
@@ -561,52 +796,94 @@
 #revistaunick #noticias #noticiasdoabc #grandeabc #abcpaulista #abc #portal #portaldenoticias #revista #unick  #lazer #entretenimento #chicomendes #sãocaetano #eventos</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:00:53 +0000 2021</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>#Entretenimento Em sua coluna de hoje na Bússola, Danilo Vicente fala sobre como a banda Eskimo Callboy pode ensinar seu negócio a chegar mais longe, usando redes sociais e parcerias como estratégia https://t.co/FypwmqO2Hi</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Sat Jul 24 10:15:03 +0000 2021</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Como ligar a Luz, TV ou Ventilador com Comando de Voz? Google Home? ASSISTA: https://t.co/fJn4cbCqDY
 Siga o @FabricioViana
 #googleassistente #Alexa #Siri #FicaDica ##googlehome #youtubebrasil #entretenimento #curiosidade #curiosidades #casainteligente #casaconectada #gaybr https://t.co/3RTXfQvTFX</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Sat Jul 24 10:00:22 +0000 2021</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Nada como acordar cedo num dia de sábado,
 tomar um café e ligar o rádio na Viva! 😃
@@ -614,229 +891,411 @@
 #radioviva #apaixonadaporvc #bomdiatrabalhador #cafe #numeroum #entretenimento #musica #informaçao https://t.co/hGobLjnL6H</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Sat Jul 24 09:55:02 +0000 2021</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Ele virou latas de lixo em busca de comida, morou na rua e tem muitas outras histórias tristes, que qdo ele faz sorrir, ninguém imagina. Hoje, a partir das 20h p/ td Brasil, nestes canais de satélite (parabólica) e no canal do youtube. 
 #entretenimento #histórias #curiosidades https://t.co/4Bu9ANhrr6</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Sat Jul 24 07:11:25 +0000 2021</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Os melhores diálogos pré combate do cinema
 O que isso tem a ver com games? 
 #entretenimento #entretenimento #fun #news #descontracao #cinema #variados https://t.co/yLTRAstPpA https://t.co/sNeZO9P6tO</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Sat Jul 24 02:17:17 +0000 2021</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>No ar o #ProgramaQualViagem c/ @tony_auad na @RedeCNT_Oficial (27.1 - #SãoPaulo #SP // @redecntbahia 18.1 - #Salvador #Bahia ) #música #viagens #turismo #entrevistas #entretenimento #variedades #cultura #REDECNT #CNT #olinda #recife https://t.co/bm71lD12Lj</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Sat Jul 24 01:45:10 +0000 2021</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>As melhores dicas de #viagens , #turismo , #cultura , #música , #variedades , #entretenimento , #entrevistas e muito mais você confere com @tony_auad , toda sexta-feira, às 23h15, no #ProgramaQualViagem , na @RedeCNT_Oficial (Exceto p/ o RJ) #REDECNT #CNT #olinda #recife https://t.co/xI4pZMy8hu</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:09:11 +0000 2021</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Confira a programação da TV aberta, sábado 24 de julho de 2021.
 #televisao #entretenimento
 https://t.co/aAgmGqUuMe</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:06:34 +0000 2021</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Confira a programação de Lives neste sábado 24 de julho de 2021.
 #live #entretenimento #RobertaMiranda #MaiaraeMaraisa #MaríliaMendonça
 https://t.co/IMNF7pEWGC</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:05:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Confira! Filmes na TV neste sábado  24 de julho de 2021.
 #televisao #entretenimento
 https://t.co/LXuM8p4Be8</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:04:26 +0000 2021</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Confira! Séries na TV neste sábado 24 de julho de 2021.
 #televisao #entretenimento
 https://t.co/ocpX5bKeAX</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:04:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>#Entretenimento #Traição #pyonglee #Separação 
 Por meio do Instagram, a influencer anunciou a separação após o ex-BBB aparecer em um momento íntimo com uma participante no reality ‘Ilha Record’
  https://t.co/5sKDrYFVNr</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:00:22 +0000 2021</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Não sei o que estar por vir amanhã, Mas sei que hoje é sexta-feira, e precisamos sorrir e ser feliz! 😃
 Franck Almeida no comando da programação a partir de agora! Você vem? 🎶
 #radioviva #apaixonadaporvc #franck #programaçao #musica #sextafeira #entretenimento #informaçao https://t.co/4HjBbaTR8m</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:44:01 +0000 2021</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>➕ Cores pra você em Cyberpunks, nas #páginas da edição 0️⃣2️⃣
 🆑ique na Bio e conheça mais sobre essa #história 📖
 #art #artist #artwork #colorart #colorida #colorful #cyberpunks #digitalart #Entretenimento #hqs #geek #hq #illustration #mixart #nerd #pagina #PortalEntretenimento https://t.co/0cYqCJr58S</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:38:08 +0000 2021</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>#Entretenimento #NoLimite #realityshow
 A novidade do reality show é que, desta vez, o público irá decidir quem será o vencedor
  https://t.co/8yZEHMXv0r</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:00:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Onde adquirir:
 Nossa loja: https://t.co/iKfDJ9ST9h
@@ -846,102 +1305,186 @@
 #estronho #editoraestronho #cinema #livrossobrecinema #livros #entretenimento #resenhas #crítica https://t.co/YMZMWOqVXU</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:41:42 +0000 2021</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Todos preparados para os jogos? 🔥
 #afterlympics #aftedepoisdodesencontro #tessa #hardin #cinema #fofoca #entretenimento #musica #funk #pop #sertanejo #after #olimpiadas https://t.co/7UVivEpDhV</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:40:27 +0000 2021</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Michaela Coel é confirmada no elenco de ‘Pantera Negra 2’ https://t.co/H9DfvhvKB0 #F5Online #destaque2 #entretenimento #chadwickboseman #cinema #gravações #hbo #imaydestroyyou #marvel #michaelacoel #panteranegra #série</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:30:00 +0000 2021</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Está começando mais um #MinutoPopcorn! 🍿 Vamos para mais uma dose semanal de indicação de #filmes para você curtir o seu #fimdesemana. 🎬 Assista e compartilhe! #dicas #entretenimento #cancaonova 
 https://t.co/6UGdoyhwpX</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:26:16 +0000 2021</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Confira a programação de Lives nesta sexta-feira 23 de julho de 2021.
 #live #entretenimento #lives #sextafeira
 https://t.co/MnMHw8d6qq</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:25:39 +0000 2021</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Cinemas dos shoppings Manaira e Mangabeira exibem estreias aguardadas pelo público https://t.co/S562YVgvFQ #F5Online #destaque2 #entretenimento #cinema #filmes #manaira #mangabeira #shoppings</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Fri Jul 23 21:27:06 +0000 2021</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Premonição? Ou será outra coisa?
 Comenta aí hehe. 
@@ -949,18 +1492,32 @@
 #professor #professordebiologia #professorpardal #engenhoca #premonição #locadora #filmes #series #educação #educaçãoinfantil em Ituverava https://t.co/TvQHsxwi23</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:54:43 +0000 2021</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Música boa, espaço confortável, um por do Sol incrível e ainda vista Praia em Foz do Iguaçu!!
 Sunset Experience by Rede Mabu !!!
@@ -968,18 +1525,32 @@
  #experience #travel #música #hospitalidade #entretenimento https://t.co/v4iB0s0Cpe</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:42:09 +0000 2021</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://t.co/tmK3rG3ioY
 PARA QUEM NÃO ASSISTIU,A LIVE COM A CIDINHA NA INTEGRA !
@@ -988,69 +1559,125 @@
 #terraplaychannel #live #cultura #atrizraquelsenna #antonioadder #velhinhasdamelhoridade #entretenimento #globo #World</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:52:14 +0000 2021</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>○ Silvio Santos retorna a SBT depois de quase 2 anos afastado
 O apresentador Silvio Santos, que estava afastado há dois anos do SBT, voltou para começar os trabalhos no segundo semestre de 2021.  #entretenimento #SBT #SilvioSantos
 https://t.co/nBesm1W8ov https://t.co/BA8A5tSBPY</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:37:31 +0000 2021</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Amazon Prime Video Brasil brinca com a Netflix após o aumento dos... 
 #news #mundo #noticias #amazon #entretenimento #netflix https://t.co/W1aJmdE5bH https://t.co/dvDCIhJ08D</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:55:28 +0000 2021</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Sikêra Jr. cria falsa promoção e divulga que empresa não existe https://t.co/FZ0OtxbGNl #F5Online #destaque2 #entretenimento #alertanacional #anunciantes #burgerking #empresa #instagram #óticastambaqui #promoção #redetv #sikêrajr</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:43:48 +0000 2021</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Pista de skate será reinaugurada neste sábado
 .
@@ -1059,18 +1686,32 @@
 #revistaunick #noticias #noticiasdoabc #grandeabc #abcpaulista #portaldenoticias #revista #unick #sitedenotícias #saocaetano #educacao #grafite #pistadeskate #lazer #entretenimento</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:24:16 +0000 2021</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Se gostar -
 Deixe seu ❤️
@@ -1079,90 +1720,21 @@
 #curiosidades #fatoscuriosos #fatos #fatosinteressantes #curioso #fatosdesconhecidos #conteúdodigital #entretenimento #marvel #séries #tv #nostalgia #guerrainfinita #filmes #cinema #vingadores https://t.co/nywUQoHSiX</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 17:45:19 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Queremos saber! Aproveita e já pede pra tocar aqui na Viva! 😃🎶
-#musica #radioviva #entretenimento #caixadeperguntas #informaçao #apaixonadaporvc https://t.co/OTUFcGmjql</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 17:40:45 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Jerry Smith lança ‘Só Uma Moralzinha’ com Luiza e Maurílio https://t.co/dF13HvECPq #F5Online #destaque2 #entretenimento #clipe #jerrysmith #luizaemaurílio #música #streaming #youtube #yvymoraes</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 16:52:28 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>De Segunda a Sexta ás 10h00 , você confere o Morning Show a sua revista radiofônica matinal.
-#MorningShowJP #morningshow #jovempan #radiojovempan #ANumero1DoBrasil #AGrifeDoRádio #jovempanlondrina #entretenimento #noticias #ibope #radio #fm #music #musica #londrina https://t.co/z2eWijgio8</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 16:40:30 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Ana Maria Braga convida Maisa Silva para tomar café no Mais Você https://t.co/0zYA6Weuua #F5Online #destaque2 #entretenimento #101dálmatas #anamariabraga #cafédamanhã #cruella #disney #globo #maisvocê #maisasilva</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 15:38:50 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Nosso podcast já está disponível nas plataformas de streaming, corre pra acessar e ficar por dentro de tudo!!
-#blackoutpdc #podcast #batepapo #entrevista #entretenimento #alagoas https://t.co/yLiGLV6QtR</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1170,45 +1742,226 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>Fri Jul 23 17:45:19 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Queremos saber! Aproveita e já pede pra tocar aqui na Viva! 😃🎶
+#musica #radioviva #entretenimento #caixadeperguntas #informaçao #apaixonadaporvc https://t.co/OTUFcGmjql</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 17:40:45 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Jerry Smith lança ‘Só Uma Moralzinha’ com Luiza e Maurílio https://t.co/dF13HvECPq #F5Online #destaque2 #entretenimento #clipe #jerrysmith #luizaemaurílio #música #streaming #youtube #yvymoraes</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 16:52:28 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>De Segunda a Sexta ás 10h00 , você confere o Morning Show a sua revista radiofônica matinal.
+#MorningShowJP #morningshow #jovempan #radiojovempan #ANumero1DoBrasil #AGrifeDoRádio #jovempanlondrina #entretenimento #noticias #ibope #radio #fm #music #musica #londrina https://t.co/z2eWijgio8</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 16:40:30 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ana Maria Braga convida Maisa Silva para tomar café no Mais Você https://t.co/0zYA6Weuua #F5Online #destaque2 #entretenimento #101dálmatas #anamariabraga #cafédamanhã #cruella #disney #globo #maisvocê #maisasilva</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 15:38:50 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Nosso podcast já está disponível nas plataformas de streaming, corre pra acessar e ficar por dentro de tudo!!
+#blackoutpdc #podcast #batepapo #entrevista #entretenimento #alagoas https://t.co/yLiGLV6QtR</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>Fri Jul 23 15:30:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Como ligar a Luz, TV ou Ventilador com Comando de Voz? Google Home? ASSISTA: https://t.co/bkihBrxPM7
 Siga o @FabricioViana
 #googleassistente #Alexa #Siri #FicaDica ##googlehome #youtubebrasil #entretenimento #curiosidade #curiosidades #casainteligente #casaconectada #gaybr https://t.co/EuT572LodI</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Fri Jul 23 15:23:25 +0000 2021</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>É uma estreia que conta com Mark Hamill, o eterno Luke Skywalker, interpretando o vilão Esqueleto, na versão original
 #Entretenimento #Serie #Netflix #Heman  https://t.co/LVuv2wuovc</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Fri Jul 23 14:08:11 +0000 2021</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>É isso que acontece quando você permite que Impostores (de terno/cofre ou da justiça social) tomem conta do seu #entretenimento.
 This "entire" company must be Purged.
@@ -1219,155 +1972,281 @@
 via @BellularGaming</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Fri Jul 23 14:02:03 +0000 2021</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Dica valiosa do @leonardo 😅
 Aproveitem que é por pouco tempo 🤭
 #tiktok #leonardo #dica #banho #frio #entretenimento #videos #radioviva #apaixonadaporvc https://t.co/JtviP6tWfZ</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Fri Jul 23 12:16:52 +0000 2021</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>É muito bom ver o #entretenimento na TL toda vez que a Globo fala em Cuba</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Fri Jul 23 11:54:57 +0000 2021</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Numa de suas publicações recente nas suas redes sociais, o rapper português Valete, rendeu-se ao talento do angolano Dji Tafinha após lançar sua nova música intitulada "Never".
 #kiandamagazine #entretenimento #artistas #musica #rap #rapper #cantores #valete #djitafinha https://t.co/g9ZRQNo8IG</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Fri Jul 23 10:55:22 +0000 2021</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Netflix aumenta valor dos planos de assinatura no Brasil https://t.co/IqST76pasN #F5Online #entretenimento #manchetes #aumento #netflix #preço #serviço #streaming</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Fri Jul 23 10:40:31 +0000 2021</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Prefeitura reinaugura Biblioteca Indústria do Conhecimento na Praça da Paz https://t.co/2qb5EJYltJ #F5Online #destaque2 #entretenimento #biblioteca #inauguração #joãopessoa #praçadapaz #prefeitura</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Fri Jul 23 10:15:36 +0000 2021</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>#Entretenimento #NoLimite #realityshow
 Paula faturou o prêmio com 66% dos votos do público. Viegas ficou em segundo lugar
  https://t.co/TkFhJbikpL</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Fri Jul 23 10:15:06 +0000 2021</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Como ligar a Luz, TV ou Ventilador com Comando de Voz? Google Home? ASSISTA: https://t.co/fJn4cbCqDY
 Siga o @FabricioViana
 #googleassistente #Alexa #Siri #FicaDica ##googlehome #youtubebrasil #entretenimento #curiosidade #curiosidades #casainteligente #casaconectada #gaybr https://t.co/c9Wt1txqrs</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Fri Jul 23 10:00:25 +0000 2021</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>A gente até tenta ficar quieto! 🤐
 Mas, nada melhor do que desabafar, né?! 😬
 #memecard #imagem #uber #entretenimento #engracado #ficarquieto #desabafo #radioviva #apaixonadaporvc https://t.co/7ZgbRGQnzb</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Fri Jul 23 10:00:09 +0000 2021</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>https://t.co/AhPmQn0eOb 🇧🇷Grupo Brasileiros | Telegram🇧🇷
 Grupo aberto para todos os Brasileiros no Telegram.
@@ -1375,159 +2254,285 @@
 https://t.co/O67uKft2zO https://t.co/VCSpVbETxY</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Fri Jul 23 05:26:25 +0000 2021</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Vim trazer treta fresquinha pra vcs, pq na verdade era pra ser um exposed, mas como tem pessoas de bem envolvidas e tbm não são pessoas "importantes" decidi borrar o número de geral. 
 Segue o fio ai Maria fifi 🙏🏻
 #fofoca #exposed #babado #treta #baixaria #entretenimento</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Fri Jul 23 04:00:55 +0000 2021</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Swellen Sauer procurou a Polícia Civil para denunciar que, em 2015, Nego do Borel tentou enforcá-la
 #Entretenimento #NegodoBorel #Violênciadomestica 
  https://t.co/xLZT6mcWoE</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Fri Jul 23 02:41:29 +0000 2021</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Confira a programação da TV aberta nesta sexta-feira 23 de julho de 2021.
 #televisao #entretenimento
 https://t.co/j0mTpm6G1u</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Fri Jul 23 02:40:06 +0000 2021</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Confira! Filmes na TV nesta sexta-feira 23 de julho de 2021.
 #televisao #entretenimento
 https://t.co/9TZMtsLDg4</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Fri Jul 23 02:39:03 +0000 2021</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Confira! Séries na TV nesta sexta-feira 23 de julho de 2021.
 #televisao #entretenimento
 https://t.co/d3x7TxPJwQ</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Fri Jul 23 02:16:16 +0000 2021</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>#Entretenimento #Vacinação #Celebridades 
 Sol transformou suas redes sociais num mural de artistas que arregaçaram as mangas para serem vacinados por ela ou por algum colega de jaleco
  https://t.co/aUQJzBZ3KN</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Fri Jul 23 01:27:04 +0000 2021</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>VÍDEO NOVO  IGOR E MONARK EXPÕE TRETA COM FELIPE NETO AO VIVO https://t.co/5QfWWbcOC8 #netolandia #flow #podcast #flowpodcast #podpah #entrevista #treta #comédia #entretenimento #noticia #felipeneto #ticaracaticast #cortes</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Fri Jul 23 01:05:35 +0000 2021</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Esperando ansiosa essa virada de Lua🌙🌒✨
 #luacheia #Entretenimento #signos</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Thu Jul 22 22:00:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Anchieta: Grupo de teatro estreia audiossérie no Spotify: https://t.co/rgsrtYwvZH
 .
@@ -1535,36 +2540,64 @@
 #anchieta #Spotify #audiosserie #Rerigtiba #Anchor  #Googlepodcasts #YouTube #entretenimento #agenda #cultura #arte https://t.co/QzU8LkXMNY</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Thu Jul 22 21:47:08 +0000 2021</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>DEPOIS DE ‘FACAS’ TER SIDO A MAIS TOCADA NAS RÁDIOS NO 1º SEMESTRE, DIEGO E VICTOR HUGO EMPLACAM ‘DESBLOQUEADO’ EM PRIMEIRO LUGAR
 https://t.co/kvXkY0bF2K
 #show #musica #musica #rock #live #entretenimento #televisao #eventos #sertanejo #concert #dj #rap #hiphop #banda #artefeed https://t.co/PLsp3aX7uy</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Thu Jul 22 21:38:24 +0000 2021</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>[#ENTRETENIMENTO]: Jinyoung, do GOT7, estrelará no drama “Yumi’s Cells”
 Em 22 de julho, foi confirmado que Jinyoung, membro do GOT7 estrelará como Yoo Babi em “Yumi’s Cells“, novo drama da tvN.
@@ -1572,103 +2605,187 @@
 #GOT7 #Jinyoung</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Thu Jul 22 21:30:05 +0000 2021</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>#Entretenimento #lucianohuck #Programa 
 O programa Se Joga será cancelado e o apresentador Luciano Huck vai assumir as tardes de sábado no programa Domingão https://t.co/Ek0Rh3H9SN</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>Thu Jul 22 21:00:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>A Netflix liberou hoje (21) todos os lançamentos para o mês de agosto. Os títulos têm várias produções originais.
 Para saber mais acesse nosso link na bio!
 #netflix #lançamentosdeagosto #seriesnetflix #filmesnetflix #entretenimento https://t.co/HYicEqF5gT</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>Thu Jul 22 20:52:52 +0000 2021</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Na pandemia, público sente mais falta de ver filmes na tela do cinema, diz estudo https://t.co/8boxlBGODs #F5Online #destaque2 #entretenimento #arte #cinema #cultura #eventos #música #podcasts #saúdemental #shows #streaming</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>Thu Jul 22 20:43:42 +0000 2021</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Após a pandemia, onde você gostaria de ver os lançamentos da indústria do cinema?
 #filmes #cinema #entretenimento</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>Thu Jul 22 20:13:45 +0000 2021</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>#Entretenimento #AnaPaulaSiebert #RafaellaJustus 
 Ana Paula também desejou que a enteada e a irmã sejam boas amigas https://t.co/W6GOr0nGbN</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>Thu Jul 22 18:08:19 +0000 2021</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Estação Cultura terá encontro musical ao ar livre nesta sexta-feira
 .
@@ -1677,208 +2794,376 @@
 #revistaunick #noticias #noticiasdoabc #grandeabc #abcpaulista #portaldenoticias #revista #unick #sitedenotícias #saocaetano #arte #entretenimento #evento #secult</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>Thu Jul 22 17:03:03 +0000 2021</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>#HOLLYWOODIANO: Meghan Markle irá produzir uma série de animação intitulada "Pearl" para a plataforma de streaming Netflix. Saiba mais detalhes no nosso IG ou Facebook.
 #entretenimento #duquesdesussex #netflix #vidanacalifornia #brasileirosnacalifornia #bdcitv #serie https://t.co/i86S2VNxN9</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Thu Jul 22 16:35:37 +0000 2021</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Realeza promete reação forte em caso de declarações polêmicas de Harry em biografia https://t.co/a1pnWU1kTj #F5Online #destaque2 #entretenimento #autobiografia #meghanmarkle #príncipeharry #príncipewillian #realeza</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>Thu Jul 22 16:20:48 +0000 2021</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Globo anuncia fim do Se Joga e Luciano Huck aos domingos já em setembro https://t.co/HWCxQ1TM29 #F5Online #destaque2 #entretenimento #fernandagentil #lucianohuck #programação #tiagoleifert #tvglobo</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>Thu Jul 22 16:17:26 +0000 2021</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Nope é anunciado, novo filme de terror de Jordan Peele
 Confira o primeiro pôster do novo projeto do criad... 
 #cinema #noticias #fun #entretenimento #news #entretenimento https://t.co/eLIWoSqB8Y https://t.co/NB44rbaTRu</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>Thu Jul 22 15:54:53 +0000 2021</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>O melhor PUB de Maricá terá um fim de semana movimentado, uma casa com todo conforto e segurança com uma carta de bebida bastante variada, além do conforto e novos camarotes para você curtir a melhor noite da Região.  #canecamofada #Entretenimento #fds
 https://t.co/ecW2vjPqb9</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>Thu Jul 22 15:30:32 +0000 2021</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Como ligar a Luz, TV ou Ventilador com Comando de Voz? Google Home? ASSISTA: https://t.co/bkihBrxPM7
 Siga o @FabricioViana
 #googleassistente #Alexa #Siri #FicaDica ##googlehome #youtubebrasil #entretenimento #curiosidade #curiosidades #casainteligente #casaconectada #gaybr https://t.co/FLRwqQfkDT</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>Thu Jul 22 15:19:45 +0000 2021</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>“Eu sou um cara muito organizado, muito ajeitado, tudo muito arrumado. Eu sou um ‘semi-gay’, falou o cantor
 #Entretenimento #EduardoCosta #Semigay  https://t.co/0BCX7nnVj5</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Thu Jul 22 15:00:30 +0000 2021</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>A Netflix Liberou nesta quarta-feira (21) o primeiro trailer de “João de Deus: Cura e Crime”, a série documental que vai abordar a trajetória do líder espiritual
 Para saber mais acesse nosso link na bio!
 #netflix #entretenimento #joãodedeus #documentario https://t.co/SRv6QdYKiX</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Thu Jul 22 14:33:51 +0000 2021</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>ATÉ o MACACO GOSTA 🤣🤣🤣 
 👉 VÊ o VÍDEO: https://t.co/VXYHOVyQPr 👈 
 #NREntertain #Humor #Insólitos #TentaNãoRir #VídeosParaRir #Comédia #Vídeos #Divertido #Anedotas #Entretenimento #Diversão #Jokes #Fails #VídeosDivertidos #VídeosDeHumor #LOL #FunnyFails #TryNotToLaugh #Funny</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>Thu Jul 22 14:32:20 +0000 2021</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Confira os vencedores do Game Developers Choice Awards 2021
 Hades é o grande vencedor do Jogo do... 
 #noticias #games #news #variados #games #entretenimento #mundo https://t.co/mq7JI6F3EZ https://t.co/X57707VGMz</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>Thu Jul 22 14:32:10 +0000 2021</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Sony anuncia que está dando seis meses d... 
 #entretenimento #news #entretenimento #games #games #playstation5 #mundo #noticias #variados #series #fun https://t.co/6ih0pZu2ZZ https://t.co/4FTn58xIec</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>Thu Jul 22 13:50:29 +0000 2021</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>São Caetano celebra aniversário com diversas atividades
 .
@@ -1887,18 +3172,32 @@
 #revistaunick #noticias #noticiasdoabc #grandeabc #abcpaulista  #sitedenotícias #saocaetano #aniversáriosãocaetano #28dejulho #sãocaetano144anos #eventos #entretenimento</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>Thu Jul 22 13:02:50 +0000 2021</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Você escuta @vitao no som mais quente do Brasil! 🔥⠀⠀⠀⠀⠀⠀
 Sintonize 104.9 📻⠀⠀⠀
@@ -1906,163 +3205,148 @@
 #Música #RedePampa #RadioEldorado #música #diversão #entretenimento https://t.co/2TSUtHgJzF</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>Thu Jul 22 12:38:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Segunda edição da Campus Party Digital começa nesta quinta-feira
 #CampusParty #CampusPartyDigital #Tecnologia #Entretenimento #Carreira #Brasil #MoneyTimes
 https://t.co/gC9xBZI8xc</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>Thu Jul 22 10:17:28 +0000 2021</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>❗Algumas crianças têm comportamento de CURINGA, só querem ver a creche pegar FOGO😂😂😂
 #Entretenimento #Musica #Moda #Beleza #Arte #Cultura #Desporto #Turismo #Gastronomia #ExaltemosApatria https://t.co/CRAQyIdiTQ</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>Thu Jul 22 10:15:03 +0000 2021</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Como ligar a Luz, TV ou Ventilador com Comando de Voz? Google Home? ASSISTA: https://t.co/fJn4cbCqDY
 Siga o @FabricioViana
 #googleassistente #Alexa #Siri #FicaDica ##googlehome #youtubebrasil #entretenimento #curiosidade #curiosidades #casainteligente #casaconectada #gaybr https://t.co/ianyY3KsjE</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>Thu Jul 22 10:02:03 +0000 2021</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>TBT de 2009 - Chora, me liga 
 Parece que foi ontem que esse sucesso foi lançado 😍
 #tbt #joaoboscoevinicius #chorameliga #radioviva #apaixonadaporvc #entretenimento #musica #sertanejo https://t.co/YB50tk8M5J</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Thu Jul 22 05:09:02 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Balneário Camboriú tem opções culturais para toda a família #Entretenimento
-https://t.co/55WdSPNbIQ</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Thu Jul 22 05:08:02 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Programações para curtir o inverno em Balneário Camboriú #Entretenimento
-https://t.co/J3zVk53rTI</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Thu Jul 22 05:07:02 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Grupo de Balneário Camboriú vence competição de danças populares em Joinville #Entretenimento
-https://t.co/7nMqkADm3n</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Thu Jul 22 04:54:01 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Cantoras As Passarinhas fazem dois shows em Balneário Camboriú neste fim de semana #Entretenimento
-https://t.co/Uc2F8NJJko</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Thu Jul 22 04:52:01 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Teatro Municipal terá show gratuito com Los 3 Piratas nesta sexta-feira #Entretenimento
-https://t.co/05uFIYarNK</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2070,16 +3354,30 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Thu Jul 22 04:28:01 +0000 2021</t>
+          <t>Thu Jul 22 05:09:02 +0000 2021</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Espetáculo patrocinado pela Lei de incentivo de Balneário Camboriú será apresentado em Minas Gerais #Entretenimento
-https://t.co/Q7t0R5wqaz</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>Balneário Camboriú tem opções culturais para toda a família #Entretenimento
+https://t.co/55WdSPNbIQ</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2087,16 +3385,30 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Thu Jul 22 04:15:01 +0000 2021</t>
+          <t>Thu Jul 22 05:08:02 +0000 2021</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Programação para curtir a natureza e se aventurar em Balneário Camboriú #Entretenimento
-https://t.co/Rd8t8286R7</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>Programações para curtir o inverno em Balneário Camboriú #Entretenimento
+https://t.co/J3zVk53rTI</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2104,16 +3416,30 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Thu Jul 22 04:08:01 +0000 2021</t>
+          <t>Thu Jul 22 05:07:02 +0000 2021</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Dingo Bells lança vinil de Todo Mundo Vai Mudar em Balneário Camboriú #Entretenimento
-https://t.co/kXx6ogJa70</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>Grupo de Balneário Camboriú vence competição de danças populares em Joinville #Entretenimento
+https://t.co/7nMqkADm3n</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2121,16 +3447,30 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Thu Jul 22 04:03:02 +0000 2021</t>
+          <t>Thu Jul 22 04:54:01 +0000 2021</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Nova Orquestra de Senhoritas se apresenta no Teatro Municipal de Balneário Camboriú no domingo #Entretenimento
-https://t.co/WkvhxGszqj</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>Cantoras As Passarinhas fazem dois shows em Balneário Camboriú neste fim de semana #Entretenimento
+https://t.co/Uc2F8NJJko</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2138,16 +3478,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Thu Jul 22 04:02:02 +0000 2021</t>
+          <t>Thu Jul 22 04:52:01 +0000 2021</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Balneário Camboriú: Sábado tem oficina gratuita de interpretação teatral na Galeria de Arte #Entretenimento
-https://t.co/D1iwPj8zCs</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>Teatro Municipal terá show gratuito com Los 3 Piratas nesta sexta-feira #Entretenimento
+https://t.co/05uFIYarNK</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2155,16 +3509,30 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Thu Jul 22 03:50:43 +0000 2021</t>
+          <t>Thu Jul 22 04:28:01 +0000 2021</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Lideranças políticas falaram sobre o caso e pediram providências contra a violência a que são submetidas as mulheres
-#Entretenimento #Pamella #Apoio #Agressões https://t.co/xuLCSLoeNl</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>Espetáculo patrocinado pela Lei de incentivo de Balneário Camboriú será apresentado em Minas Gerais #Entretenimento
+https://t.co/Q7t0R5wqaz</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2172,16 +3540,30 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Thu Jul 22 03:26:44 +0000 2021</t>
+          <t>Thu Jul 22 04:15:01 +0000 2021</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Acampamento Farroupilha de Balneário Camboriú será de 13 a 22 de setembro #Entretenimento
-https://t.co/LuvnFFBYTQ</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>Programação para curtir a natureza e se aventurar em Balneário Camboriú #Entretenimento
+https://t.co/Rd8t8286R7</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2189,16 +3571,30 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Thu Jul 22 02:59:48 +0000 2021</t>
+          <t>Thu Jul 22 04:08:01 +0000 2021</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Inscrições para oficina de produção de vídeos está aberta em Balneário Camboriú #Entretenimento
-https://t.co/2wSwDd27qi</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>Dingo Bells lança vinil de Todo Mundo Vai Mudar em Balneário Camboriú #Entretenimento
+https://t.co/kXx6ogJa70</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2206,16 +3602,30 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Thu Jul 22 02:35:54 +0000 2021</t>
+          <t>Thu Jul 22 04:03:02 +0000 2021</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galeria de Arte recebe exposição fotográfica sobre a Rússia no domingo em Balneário Camboriú #Entretenimento
-https://t.co/kxpm96SmvA</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>Nova Orquestra de Senhoritas se apresenta no Teatro Municipal de Balneário Camboriú no domingo #Entretenimento
+https://t.co/WkvhxGszqj</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2223,16 +3633,30 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Thu Jul 22 02:33:02 +0000 2021</t>
+          <t>Thu Jul 22 04:02:02 +0000 2021</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Acampamento Farroupilha de Balneário Camboriú começa com shows nativistas nesta sexta-feira #Entretenimento
-https://t.co/ltyhVtAOBL</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>Balneário Camboriú: Sábado tem oficina gratuita de interpretação teatral na Galeria de Arte #Entretenimento
+https://t.co/D1iwPj8zCs</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2240,16 +3664,30 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Thu Jul 22 02:12:44 +0000 2021</t>
+          <t>Thu Jul 22 03:50:43 +0000 2021</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Comediante André Santi se apresenta no Didge Balneário Camboriú na quinta #Entretenimento
-https://t.co/YLxmT6NDzu</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>Lideranças políticas falaram sobre o caso e pediram providências contra a violência a que são submetidas as mulheres
+#Entretenimento #Pamella #Apoio #Agressões https://t.co/xuLCSLoeNl</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2257,16 +3695,30 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Thu Jul 22 02:08:53 +0000 2021</t>
+          <t>Thu Jul 22 03:26:44 +0000 2021</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Mais de 15 mil pessoas no primeiro final de semana do Acampamento Farroupilha em Balneário Camboriú #Entretenimento
-https://t.co/eCFrm1TD0n</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>Acampamento Farroupilha de Balneário Camboriú será de 13 a 22 de setembro #Entretenimento
+https://t.co/LuvnFFBYTQ</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2274,225 +3726,407 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>Thu Jul 22 02:59:48 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Inscrições para oficina de produção de vídeos está aberta em Balneário Camboriú #Entretenimento
+https://t.co/2wSwDd27qi</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Thu Jul 22 02:35:54 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Galeria de Arte recebe exposição fotográfica sobre a Rússia no domingo em Balneário Camboriú #Entretenimento
+https://t.co/kxpm96SmvA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Thu Jul 22 02:33:02 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Acampamento Farroupilha de Balneário Camboriú começa com shows nativistas nesta sexta-feira #Entretenimento
+https://t.co/ltyhVtAOBL</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Thu Jul 22 02:12:44 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Comediante André Santi se apresenta no Didge Balneário Camboriú na quinta #Entretenimento
+https://t.co/YLxmT6NDzu</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Thu Jul 22 02:08:53 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Mais de 15 mil pessoas no primeiro final de semana do Acampamento Farroupilha em Balneário Camboriú #Entretenimento
+https://t.co/eCFrm1TD0n</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
           <t>Thu Jul 22 02:00:49 +0000 2021</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Confira a programação da TV aberta, quinta-feira 22 de julho de 2021.
 #televisao #entretenimento
 https://t.co/mvHS6RXKmC</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>Thu Jul 22 01:59:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>Confira! Filmes na TV nesta quinta-feira 22 de julho de 2021.
 #televisao #entretenimento
 https://t.co/w1GNELXVGh</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>Thu Jul 22 01:58:26 +0000 2021</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>Confira! Séries na TV nesta quinta-feira 22 de julho de 2021.
 #televisao #entretenimento
 https://t.co/bPKYwf5SLf</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>Thu Jul 22 01:56:51 +0000 2021</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Mostra EmCenaCatarina está em cartaz no Teatro Municipal de Balneário Camboriú #Entretenimento
 https://t.co/D04EcZ1iqJ</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>Thu Jul 22 01:30:01 +0000 2021</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>Musicais movimentam o Teatro Municipal neste fim de semana em Balneário Camboriú #Entretenimento
 https://t.co/yn0V15zoEA</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>Thu Jul 22 01:27:44 +0000 2021</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Acampamento Farroupilha movimenta Balneário Camboriú até domingo #Entretenimento
 https://t.co/bO7Urh8tcT</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>Thu Jul 22 01:19:52 +0000 2021</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>#Entretenimento #TadeuSchmidt #Bolo 
 No fim de junho, o jornalista tomou a primeira dose do imunizante e se emocionou: ‘Eu entrei numa espécie de transe’, declarou na ocasião
  https://t.co/L1R67ITXec</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>Thu Jul 22 01:11:42 +0000 2021</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>DC libera primeira imagem da animação de INJUSTICE
 Uma das historias mais famosas da DC agora ganha sua... 
 #hqs #fun #news #entretenimento #previa #cinema #entretenimento https://t.co/NPTzxqgYHQ https://t.co/6UIeiIwVYT</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Thu Jul 22 00:48:51 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Espetáculo marca início da campanha sobre o câncer de mama em Balneário Camboriú #Entretenimento
-https://t.co/iF1BTy1TNQ</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Thu Jul 22 00:43:45 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Abertas as inscrições para a curadoria do Festival da Canção de Balneário Camboriú #Entretenimento
-https://t.co/XTwybb22od</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Thu Jul 22 00:34:02 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Projeto cultural em Balneário Camboriú transforma guarda-chuvas descartados em arte #Entretenimento
-https://t.co/VKUNdccLca</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Wed Jul 21 23:58:44 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Cardápio da Marejada 2019 destaca frutos do mar e opções sem glúten e sem lactose #Entretenimento
-https://t.co/Cq8Ua9gsMJ</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Wed Jul 21 22:35:44 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Simão comanda palco do Didge Balneário Camboriú neste sábado #Entretenimento
-https://t.co/jZ1wxm6Mmv</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2500,16 +4134,30 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Wed Jul 21 22:30:02 +0000 2021</t>
+          <t>Thu Jul 22 00:48:51 +0000 2021</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Cinco espetáculos estarão em cartaz no Teatro Municipal de Balneário Camboriú neste sábado #Entretenimento
-https://t.co/UdWbKsqL5h</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>Espetáculo marca início da campanha sobre o câncer de mama em Balneário Camboriú #Entretenimento
+https://t.co/iF1BTy1TNQ</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2517,16 +4165,30 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Wed Jul 21 22:27:02 +0000 2021</t>
+          <t>Thu Jul 22 00:43:45 +0000 2021</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Festa em dobro no aniversário do Templo: 17 anos do Warung Beach Club tem convidados especiais #Entretenimento
-https://t.co/fvDsxYmA38</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>Abertas as inscrições para a curadoria do Festival da Canção de Balneário Camboriú #Entretenimento
+https://t.co/XTwybb22od</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2534,217 +4196,540 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>Thu Jul 22 00:34:02 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Projeto cultural em Balneário Camboriú transforma guarda-chuvas descartados em arte #Entretenimento
+https://t.co/VKUNdccLca</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Wed Jul 21 23:58:44 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Cardápio da Marejada 2019 destaca frutos do mar e opções sem glúten e sem lactose #Entretenimento
+https://t.co/Cq8Ua9gsMJ</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Wed Jul 21 22:35:44 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Simão comanda palco do Didge Balneário Camboriú neste sábado #Entretenimento
+https://t.co/jZ1wxm6Mmv</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Wed Jul 21 22:30:02 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Cinco espetáculos estarão em cartaz no Teatro Municipal de Balneário Camboriú neste sábado #Entretenimento
+https://t.co/UdWbKsqL5h</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Wed Jul 21 22:27:02 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Festa em dobro no aniversário do Templo: 17 anos do Warung Beach Club tem convidados especiais #Entretenimento
+https://t.co/fvDsxYmA38</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
           <t>Wed Jul 21 22:12:16 +0000 2021</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Neill Blomkamp revela novos detalhes de District 10
 Diretor também revelou o porq... 
 #filmes #curiosidades #news #entretenimento #internet #fun #entretenimento #noticias https://t.co/u1adWIpOvL https://t.co/ziWZ4WP4Hq</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>Wed Jul 21 22:03:54 +0000 2021</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Bairro da Barra em Balneário Camboriú terá Sarau da Tainha neste sábado #Entretenimento
 https://t.co/3YhJATdP4C</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>Wed Jul 21 21:49:51 +0000 2021</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>🙏🏻 Ajude nossa #campanha a chegar aos 💯%
 📌Acesse agora mesmo e garanta a sua #recompensa📚
 #quadrinhonacional #hqs #quadrinhos #Entretenimento #PortalEntretenimento #hq #nerd #geek #quadrinhosbr #quadrinhosnacionais #apoiocoletivo #catarse #cyberpunks #leitura #divulgação https://t.co/ymp9cJgNuN</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>Wed Jul 21 21:09:54 +0000 2021</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Teatro Municipal recebe 1ª Mostra Paralela da Cia Tablado das Artes #Entretenimento
 https://t.co/uCLmSNMu68</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>Wed Jul 21 20:28:01 +0000 2021</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Vitor Kley apresenta novo show em Balneário Camboriú #Entretenimento
 https://t.co/PXfLP5146i</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>Wed Jul 21 20:02:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>É aqui que a mágica acontece! 📻🎙
 Estamos esperando sua companhia, prepara teu mate e liga o som! 🎶😃
 #radioviva #apaixonadaporvc #som #radio #musica #entretenimento #informaçao #estudio #locutores #ouvintes #amigos https://t.co/tgX64amVGY</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>Wed Jul 21 19:55:03 +0000 2021</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>#Entretenimento #Mãe #Engajamento 
 “Super verdade [o boato], até porque engajamento vai criar minha filha”, ironizou https://t.co/id9q1ngTQH</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>Wed Jul 21 19:53:03 +0000 2021</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>Três vezes Warung para fechar 2019: últimas festas do ano têm Djs internacionais #Entretenimento
 https://t.co/LdOPU2DzDp</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>Wed Jul 21 19:12:12 +0000 2021</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Netflix irá adicionar games ao seu serviço
 Segundo empresa, assinantes não terão custo extra para usufruir dos jogos 
 #entretenimento #netflix #news #anuncio #games #games #noticias #internet https://t.co/DJdTqGt2JR https://t.co/OPX46L5Jp8</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>Wed Jul 21 19:09:11 +0000 2021</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>Os 30 anos de #Vamp (@tvglobo) em destaque na coluna #Vale1Like desta quarta no portal @escotilha:  https://t.co/vTmU98pd1g  Faça a sua maratona no @globoplay #producaodeconteudo #novela #folhetim #entretenimento #30anos #redeglobo #jornalismo #suspense #comedia #sagacrepusculo</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>Wed Jul 21 19:05:51 +0000 2021</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Chemical Surf se apresenta na Green Valley, em Balneário Camboriú #Entretenimento
 https://t.co/DfmMpyCKiC</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>Wed Jul 21 18:18:27 +0000 2021</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>#Entretenimento #Anitta #Foco 
 Após um perfil dedicado para celebridades repercutir o discurso, a cantora deixou um comentário dizendo: “Eu na vida sempre” https://t.co/Vrmyqe1I9s</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>Wed Jul 21 18:11:11 +0000 2021</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>Faremos nossa estreia e primeira temporada de As Cores no Som em SP no Teatro West Plaza!!!
 🎼🥰🎭
@@ -2753,125 +4738,83 @@
 #teatro #musical #infantil #sp #westplaza #entretenimento #SaudeMental #crianca #animacao #desenhoanimado https://t.co/Ku4joz6mnH</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>Wed Jul 21 18:00:01 +0000 2021</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Período sem treinar pode comprometer sua evolução física https://t.co/9ZGg8cSNSZ #desporto #esporte #fitness #health #entretenimento  #dieta #academia #gym https://t.co/js7q1pXp7N</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>Wed Jul 21 17:57:30 +0000 2021</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>#Entretenimento #Vacinação #Celebridades 
 Sol transformou suas redes sociais num mural de artistas que arregaçaram as mangas para serem vacinados por ela ou por algum colega de jaleco
  https://t.co/LwuM6kipIg</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Wed Jul 21 17:55:54 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Com Racionais, BaianaSystem e Alceu Valença, festival Forró da Lua Cheia é remarcado para 2022 https://t.co/zq6RfOT3IK #F5Online #destaque2 #entretenimento</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Wed Jul 21 17:53:44 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>"Viva Verão" e "Lounge SBT" são atrações do final de semana em Balneário Camboriú #Entretenimento
-https://t.co/V4gT6KOSSS</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Wed Jul 21 17:00:01 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Atividade física na prevenção de dor na lombar https://t.co/HR0T1I7fWv #desporto #esporte #fitness #health #entretenimento  #dieta #academia #gym https://t.co/7R9Xv6E0WO</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Wed Jul 21 16:32:50 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>A Konami revelou hoje que o PES agora é conhecido apenas como eFootball, e poderá ser baixado gratuitamente para PC, e consoles até o fim do ano.
-Fonte: https://t.co/RCwFDJZDzG
-#pes #proevolutionsoccer #pes2022 #konami #eFootball #ea #news #games #jogos #noticias #entretenimento https://t.co/qBXWCTD8xd</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Wed Jul 21 16:31:01 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Balneário Camboriú divulga projetos aprovados na Lei de Incentivo à Cultura #Entretenimento
-https://t.co/akAL8d1Lrv</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -2879,16 +4822,29 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Wed Jul 21 16:16:47 +0000 2021</t>
+          <t>Wed Jul 21 17:55:54 +0000 2021</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Gustavo Mioto é um dos sertanejos mais tocado no Carnaval #Entretenimento
-https://t.co/NAVv49aBAv</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>Com Racionais, BaianaSystem e Alceu Valença, festival Forró da Lua Cheia é remarcado para 2022 https://t.co/zq6RfOT3IK #F5Online #destaque2 #entretenimento</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -2896,15 +4852,30 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Wed Jul 21 16:14:05 +0000 2021</t>
+          <t>Wed Jul 21 17:53:44 +0000 2021</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Transforme os potes de vidro em objetos de decoração https://t.co/Amgkdc6ULQ via @_GeraLinks @pitacoseachados #dicas #diy #Entretenimento #façavocê https://t.co/Tq6RMzzn3K</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>"Viva Verão" e "Lounge SBT" são atrações do final de semana em Balneário Camboriú #Entretenimento
+https://t.co/V4gT6KOSSS</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
